--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_2_5.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_2_5.xlsx
@@ -522,162 +522,162 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9486696285510684</v>
+        <v>0.990678724190406</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7835940003060138</v>
+        <v>0.8152677866761572</v>
       </c>
       <c r="D2" t="n">
-        <v>0.864595971595187</v>
+        <v>0.9818489393258675</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9328622066364735</v>
+        <v>0.970185960129629</v>
       </c>
       <c r="F2" t="n">
-        <v>0.886267580471429</v>
+        <v>0.9795471264108562</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3432464302336331</v>
+        <v>0.06233141425928304</v>
       </c>
       <c r="H2" t="n">
-        <v>1.44710791641169</v>
+        <v>1.235305161110165</v>
       </c>
       <c r="I2" t="n">
-        <v>1.998629851384049</v>
+        <v>0.201540561440917</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1261860464091849</v>
+        <v>0.1840414681696231</v>
       </c>
       <c r="K2" t="n">
-        <v>1.062407948896617</v>
+        <v>0.1927910148052701</v>
       </c>
       <c r="L2" t="n">
-        <v>0.488510951631586</v>
+        <v>0.2548576848826395</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5858723668459139</v>
+        <v>0.2496626008421827</v>
       </c>
       <c r="N2" t="n">
-        <v>1.033295376074983</v>
+        <v>1.006046232957575</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6108141664255364</v>
+        <v>0.2602912546328653</v>
       </c>
       <c r="P2" t="n">
-        <v>124.1386132685803</v>
+        <v>127.5505794771077</v>
       </c>
       <c r="Q2" t="n">
-        <v>198.4900385855406</v>
+        <v>201.9020047940679</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_12</t>
+          <t>model_2_5_10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9484806978412711</v>
+        <v>0.9907749666553047</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7835908434707679</v>
+        <v>0.8152659369520431</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8640302858413811</v>
+        <v>0.9819521779437592</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9310356394032593</v>
+        <v>0.970803533001677</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8856368944142617</v>
+        <v>0.9798101245902002</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3445098107599935</v>
+        <v>0.06168784045335027</v>
       </c>
       <c r="H3" t="n">
-        <v>1.447129026183515</v>
+        <v>1.235317530223834</v>
       </c>
       <c r="I3" t="n">
-        <v>2.006979650480712</v>
+        <v>0.2003942499726325</v>
       </c>
       <c r="J3" t="n">
-        <v>0.129619094862414</v>
+        <v>0.1802292032579362</v>
       </c>
       <c r="K3" t="n">
-        <v>1.068299372671563</v>
+        <v>0.1903119653129487</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4944343905278317</v>
+        <v>0.2669566102486163</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5869495811055611</v>
+        <v>0.2483703695156696</v>
       </c>
       <c r="N3" t="n">
-        <v>1.033417925724581</v>
+        <v>1.005983805412775</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6119372399263576</v>
+        <v>0.258944010343495</v>
       </c>
       <c r="P3" t="n">
-        <v>124.1312654213512</v>
+        <v>127.5713368856061</v>
       </c>
       <c r="Q3" t="n">
-        <v>198.4826907383114</v>
+        <v>201.9227622025664</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_10</t>
+          <t>model_2_5_12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9488693911760641</v>
+        <v>0.9905891673613542</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7835835079310501</v>
+        <v>0.8152657090756722</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8652307939853241</v>
+        <v>0.9817550163358406</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9348711443410078</v>
+        <v>0.9696257386916703</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8869712359431512</v>
+        <v>0.9793083902658121</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3419106166404651</v>
+        <v>0.06293028118752488</v>
       </c>
       <c r="H4" t="n">
-        <v>1.447178078971385</v>
+        <v>1.235319054034175</v>
       </c>
       <c r="I4" t="n">
-        <v>1.989259561635639</v>
+        <v>0.2025834367021524</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1224102311236731</v>
+        <v>0.1874997038327637</v>
       </c>
       <c r="K4" t="n">
-        <v>1.055834896379656</v>
+        <v>0.1950413677189156</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4818538850460882</v>
+        <v>0.2439632911916631</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5847312345346921</v>
+        <v>0.2508590863164515</v>
       </c>
       <c r="N4" t="n">
-        <v>1.033165800318229</v>
+        <v>1.006104323873716</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6096244537493564</v>
+        <v>0.2615386769708402</v>
       </c>
       <c r="P4" t="n">
-        <v>124.1464118618622</v>
+        <v>127.531455626389</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.4978371788225</v>
+        <v>201.8828809433492</v>
       </c>
     </row>
     <row r="5">
@@ -687,162 +687,162 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9483031369365582</v>
+        <v>0.9905062783318315</v>
       </c>
       <c r="C5" t="n">
-        <v>0.783577723056248</v>
+        <v>0.8152608733018364</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8635254555145022</v>
+        <v>0.9816697891721233</v>
       </c>
       <c r="E5" t="n">
-        <v>0.929376589732971</v>
+        <v>0.9691183575905638</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8850711408294402</v>
+        <v>0.9790920348494305</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3456971613474014</v>
+        <v>0.0634845605096117</v>
       </c>
       <c r="H5" t="n">
-        <v>1.447216762455823</v>
+        <v>1.235351390876082</v>
       </c>
       <c r="I5" t="n">
-        <v>2.01443119363693</v>
+        <v>0.2035297577317586</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1327372926494129</v>
+        <v>0.1906317571598266</v>
       </c>
       <c r="K5" t="n">
-        <v>1.073584243143171</v>
+        <v>0.1970807574457926</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4997099953245913</v>
+        <v>0.2341661173140613</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5879601698647634</v>
+        <v>0.2519614266303707</v>
       </c>
       <c r="N5" t="n">
-        <v>1.033533100365476</v>
+        <v>1.006158089730704</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6129908515412464</v>
+        <v>0.262687946194082</v>
       </c>
       <c r="P5" t="n">
-        <v>124.1243842868123</v>
+        <v>127.5139170884562</v>
       </c>
       <c r="Q5" t="n">
-        <v>198.4758096037726</v>
+        <v>201.8653424054165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_14</t>
+          <t>model_2_5_9</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9481369884070151</v>
+        <v>0.990877819753314</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7835576380814864</v>
+        <v>0.8152588015515719</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8630738948706265</v>
+        <v>0.982065465667269</v>
       </c>
       <c r="E6" t="n">
-        <v>0.927870827632842</v>
+        <v>0.9714833856967744</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8845628949055189</v>
+        <v>0.9800994850403094</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3468081973295001</v>
+        <v>0.06100006131336691</v>
       </c>
       <c r="H6" t="n">
-        <v>1.447351070774538</v>
+        <v>1.235365244679639</v>
       </c>
       <c r="I6" t="n">
-        <v>2.021096450152504</v>
+        <v>0.1991363581165904</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1355673851610814</v>
+        <v>0.1760324862518273</v>
       </c>
       <c r="K6" t="n">
-        <v>1.078331917656793</v>
+        <v>0.1875844221842088</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5044346272087158</v>
+        <v>0.2804118079598957</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5889042344299285</v>
+        <v>0.2469819048298213</v>
       </c>
       <c r="N6" t="n">
-        <v>1.033640872384639</v>
+        <v>1.005917089889742</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6139751068894336</v>
+        <v>0.257496435841452</v>
       </c>
       <c r="P6" t="n">
-        <v>124.117966794607</v>
+        <v>127.5937608193443</v>
       </c>
       <c r="Q6" t="n">
-        <v>198.4693921115672</v>
+        <v>201.9451861363046</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_9</t>
+          <t>model_2_5_14</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9490790922498261</v>
+        <v>0.9904296556257053</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7835546256877358</v>
+        <v>0.8152540374465808</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8659445778344191</v>
+        <v>0.9815923309856889</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9370789400830266</v>
+        <v>0.9686583428593669</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8877572817791162</v>
+        <v>0.9788957645367382</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3405083445946333</v>
+        <v>0.06399693689829224</v>
       </c>
       <c r="H7" t="n">
-        <v>1.447371214665418</v>
+        <v>1.235397102271652</v>
       </c>
       <c r="I7" t="n">
-        <v>1.978723762036146</v>
+        <v>0.2043898158111435</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1182606604868203</v>
+        <v>0.1934714188385936</v>
       </c>
       <c r="K7" t="n">
-        <v>1.048492211261483</v>
+        <v>0.1989308227970102</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4743662826038743</v>
+        <v>0.2253532663940051</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5835309285673154</v>
+        <v>0.2529761587547179</v>
       </c>
       <c r="N7" t="n">
-        <v>1.033029778000113</v>
+        <v>1.006207790945489</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6083730482719726</v>
+        <v>0.2637458775657476</v>
       </c>
       <c r="P7" t="n">
-        <v>124.154631293614</v>
+        <v>127.497840115464</v>
       </c>
       <c r="Q7" t="n">
-        <v>198.5060566105743</v>
+        <v>201.8492654324243</v>
       </c>
     </row>
     <row r="8">
@@ -852,162 +852,162 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9479823874258032</v>
+        <v>0.9903591803063493</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7835327880499485</v>
+        <v>0.8152459511227299</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8626700172007082</v>
+        <v>0.9815221509224322</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9265051090861428</v>
+        <v>0.9682421707377857</v>
       </c>
       <c r="F8" t="n">
-        <v>0.88410641039324</v>
+        <v>0.9787181978548118</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3478420148027364</v>
+        <v>0.06446820568333506</v>
       </c>
       <c r="H8" t="n">
-        <v>1.447517243049854</v>
+        <v>1.235451175556477</v>
       </c>
       <c r="I8" t="n">
-        <v>2.027057882592259</v>
+        <v>0.2051690611458732</v>
       </c>
       <c r="J8" t="n">
-        <v>0.138134264638078</v>
+        <v>0.196040440970451</v>
       </c>
       <c r="K8" t="n">
-        <v>1.082596073615169</v>
+        <v>0.2006045856868543</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5086396031383145</v>
+        <v>0.217412649362462</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5897813279536207</v>
+        <v>0.2539058992684791</v>
       </c>
       <c r="N8" t="n">
-        <v>1.033741154102182</v>
+        <v>1.006253504666152</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6148895401002634</v>
+        <v>0.2647151990580078</v>
       </c>
       <c r="P8" t="n">
-        <v>124.1120137654798</v>
+        <v>127.4831662237099</v>
       </c>
       <c r="Q8" t="n">
-        <v>198.46343908244</v>
+        <v>201.8345915406702</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_16</t>
+          <t>model_2_5_8</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9478389491761442</v>
+        <v>0.9909871263339338</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7835049089622137</v>
+        <v>0.8152445337382707</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8623079767232373</v>
+        <v>0.9821897409397404</v>
       </c>
       <c r="E9" t="n">
-        <v>0.925267732830476</v>
+        <v>0.9722311191170806</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8836958915632149</v>
+        <v>0.9804175308492064</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3488011870386781</v>
+        <v>0.060269127705452</v>
       </c>
       <c r="H9" t="n">
-        <v>1.447703670637909</v>
+        <v>1.235460653612882</v>
       </c>
       <c r="I9" t="n">
-        <v>2.032401777557626</v>
+        <v>0.1977564658537208</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1404599237013384</v>
+        <v>0.1714167428949731</v>
       </c>
       <c r="K9" t="n">
-        <v>1.086430850629482</v>
+        <v>0.1845864877382462</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5123902719005884</v>
+        <v>0.295366768632573</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5905939273635297</v>
+        <v>0.2454977142570823</v>
       </c>
       <c r="N9" t="n">
-        <v>1.033834195128988</v>
+        <v>1.005846188323935</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6157367335493648</v>
+        <v>0.2559490602033334</v>
       </c>
       <c r="P9" t="n">
-        <v>124.1065063674918</v>
+        <v>127.6178705694108</v>
       </c>
       <c r="Q9" t="n">
-        <v>198.457931684452</v>
+        <v>201.969295886371</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_8</t>
+          <t>model_2_5_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9492974806113461</v>
+        <v>0.9902945004341521</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7835012853849056</v>
+        <v>0.8152371629680815</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8667496348993288</v>
+        <v>0.9814586600377699</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9395013741635742</v>
+        <v>0.9678656053161336</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8886370326205361</v>
+        <v>0.9785574476169651</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3390479806155632</v>
+        <v>0.06490072028654117</v>
       </c>
       <c r="H10" t="n">
-        <v>1.447727901516053</v>
+        <v>1.235509941987077</v>
       </c>
       <c r="I10" t="n">
-        <v>1.96684072501759</v>
+        <v>0.2058740330905405</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1137076752903003</v>
+        <v>0.1983649717406547</v>
       </c>
       <c r="K10" t="n">
-        <v>1.040274200153945</v>
+        <v>0.2021198349426419</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4659606435064014</v>
+        <v>0.2102759249829614</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5822782673392192</v>
+        <v>0.2547561977392134</v>
       </c>
       <c r="N10" t="n">
-        <v>1.032888120684532</v>
+        <v>1.006295459177847</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6070670586620301</v>
+        <v>0.2656016964950017</v>
       </c>
       <c r="P10" t="n">
-        <v>124.1632272917556</v>
+        <v>127.4697931138556</v>
       </c>
       <c r="Q10" t="n">
-        <v>198.5146526087158</v>
+        <v>201.8212184308159</v>
       </c>
     </row>
     <row r="11">
@@ -1017,162 +1017,162 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9477064348802139</v>
+        <v>0.9902352738434663</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7834754171447597</v>
+        <v>0.8152278744781563</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8619836151522683</v>
+        <v>0.9814011070525788</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9241465676210965</v>
+        <v>0.9675253390996638</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8833268326629556</v>
+        <v>0.9784121685914204</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3496873107457367</v>
+        <v>0.06529676877117002</v>
       </c>
       <c r="H11" t="n">
-        <v>1.447900882557021</v>
+        <v>1.235572054161976</v>
       </c>
       <c r="I11" t="n">
-        <v>2.037189513388071</v>
+        <v>0.2065130734836205</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1425671631272322</v>
+        <v>0.2004654282477206</v>
       </c>
       <c r="K11" t="n">
-        <v>1.089878338257652</v>
+        <v>0.2034892508656705</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5157335334585765</v>
+        <v>0.2038518905310425</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5913436486052224</v>
+        <v>0.2555323243176292</v>
       </c>
       <c r="N11" t="n">
-        <v>1.033920150347969</v>
+        <v>1.00633387642586</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6165183719764532</v>
+        <v>0.2664108643886642</v>
       </c>
       <c r="P11" t="n">
-        <v>124.1014318433715</v>
+        <v>127.4576254535091</v>
       </c>
       <c r="Q11" t="n">
-        <v>198.4528571603317</v>
+        <v>201.8090507704693</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_18</t>
+          <t>model_2_5_7</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9475843433130298</v>
+        <v>0.9911023592119858</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7834452628932882</v>
+        <v>0.8152208369273187</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8616925935277404</v>
+        <v>0.9823257576555571</v>
       </c>
       <c r="E12" t="n">
-        <v>0.923132280700481</v>
+        <v>0.9730521858003458</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8829948667291903</v>
+        <v>0.9807664796266073</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3505037376176769</v>
+        <v>0.05949856491931985</v>
       </c>
       <c r="H12" t="n">
-        <v>1.448102524175459</v>
+        <v>1.235619114296832</v>
       </c>
       <c r="I12" t="n">
-        <v>2.0414851352616</v>
+        <v>0.1962462023069683</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1444735239118949</v>
+        <v>0.1663483147815639</v>
       </c>
       <c r="K12" t="n">
-        <v>1.092979329586748</v>
+        <v>0.1812972585442661</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5187203992579424</v>
+        <v>0.3119931468256336</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5920335612257779</v>
+        <v>0.2439232767066724</v>
       </c>
       <c r="N12" t="n">
-        <v>1.033999344878035</v>
+        <v>1.005771442673307</v>
       </c>
       <c r="O12" t="n">
-        <v>0.617237655605582</v>
+        <v>0.2543075955868675</v>
       </c>
       <c r="P12" t="n">
-        <v>124.096767817781</v>
+        <v>127.6436061714489</v>
       </c>
       <c r="Q12" t="n">
-        <v>198.4481931347413</v>
+        <v>201.9950314884092</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_7</t>
+          <t>model_2_5_18</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.949522395217863</v>
+        <v>0.990181141330635</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7834158497712875</v>
+        <v>0.8152185589756235</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8676598366922706</v>
+        <v>0.9813490073699997</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9421548372742066</v>
+        <v>0.9672178748935735</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8896230968259844</v>
+        <v>0.9782808068630724</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3375439756061487</v>
+        <v>0.06565875313373104</v>
       </c>
       <c r="H13" t="n">
-        <v>1.448299209857713</v>
+        <v>1.235634346970307</v>
       </c>
       <c r="I13" t="n">
-        <v>1.953405700258073</v>
+        <v>0.2070915630532602</v>
       </c>
       <c r="J13" t="n">
-        <v>0.108720469091694</v>
+        <v>0.2023633986047904</v>
       </c>
       <c r="K13" t="n">
-        <v>1.031063084674884</v>
+        <v>0.2047274808290253</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4565894504985025</v>
+        <v>0.1980716277235204</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5809853488739184</v>
+        <v>0.2562396400515171</v>
       </c>
       <c r="N13" t="n">
-        <v>1.032742230128954</v>
+        <v>1.006368989407156</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6057190979809512</v>
+        <v>0.2671482920176891</v>
       </c>
       <c r="P13" t="n">
-        <v>124.1721189581306</v>
+        <v>127.4465687136562</v>
       </c>
       <c r="Q13" t="n">
-        <v>198.5235442750909</v>
+        <v>201.7979940306164</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9474720929586758</v>
+        <v>0.9901317455018125</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7834152050681246</v>
+        <v>0.8152092720967588</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8614312838980691</v>
+        <v>0.9813018812959636</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9222146429879943</v>
+        <v>0.9669401270870062</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8826960983707377</v>
+        <v>0.978162104826598</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3512543562541064</v>
+        <v>0.06598906326851384</v>
       </c>
       <c r="H14" t="n">
-        <v>1.448303520990732</v>
+        <v>1.235696448372038</v>
       </c>
       <c r="I14" t="n">
-        <v>2.04534219352248</v>
+        <v>0.2076148280894061</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1461982316982783</v>
+        <v>0.2040779302255903</v>
       </c>
       <c r="K14" t="n">
-        <v>1.095770212610379</v>
+        <v>0.2058463791574982</v>
       </c>
       <c r="L14" t="n">
-        <v>0.5213882872167764</v>
+        <v>0.1928737898351776</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5926671546948645</v>
+        <v>0.2568833651066449</v>
       </c>
       <c r="N14" t="n">
-        <v>1.034072155918697</v>
+        <v>1.00640102994477</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6178982224603669</v>
+        <v>0.2678194217811083</v>
       </c>
       <c r="P14" t="n">
-        <v>124.0924893125283</v>
+        <v>127.4365325174793</v>
       </c>
       <c r="Q14" t="n">
-        <v>198.4439146294886</v>
+        <v>201.7879578344395</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9473691638731044</v>
+        <v>0.9900867887822393</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7833857817538808</v>
+        <v>0.8152003352674932</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8611967046808516</v>
+        <v>0.9812593811848336</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9213841514882689</v>
+        <v>0.9666894478907831</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8824272159169166</v>
+        <v>0.9780549907334252</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3519426435232673</v>
+        <v>0.06628968905930611</v>
       </c>
       <c r="H15" t="n">
-        <v>1.448500274828561</v>
+        <v>1.235756208990486</v>
       </c>
       <c r="I15" t="n">
-        <v>2.048804697788924</v>
+        <v>0.2080867286803544</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1477591474459756</v>
+        <v>0.2056253678594384</v>
       </c>
       <c r="K15" t="n">
-        <v>1.09828192261745</v>
+        <v>0.2068560482698964</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5237700989298514</v>
+        <v>0.188191791694745</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5932475398375179</v>
+        <v>0.2574678408254245</v>
       </c>
       <c r="N15" t="n">
-        <v>1.034138920730959</v>
+        <v>1.006430191060169</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6185033158001058</v>
+        <v>0.2684287798412679</v>
       </c>
       <c r="P15" t="n">
-        <v>124.0885741223942</v>
+        <v>127.4274418267044</v>
       </c>
       <c r="Q15" t="n">
-        <v>198.4399994393545</v>
+        <v>201.7788671436647</v>
       </c>
     </row>
     <row r="16">
@@ -1292,217 +1292,217 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.94727497720133</v>
+        <v>0.9900459018892451</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7833573422842574</v>
+        <v>0.8151916891354104</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8609859226241643</v>
+        <v>0.9812210194345908</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9206341546385031</v>
+        <v>0.9664632122673701</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8821852327415813</v>
+        <v>0.977958317853765</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3525724702311127</v>
+        <v>0.0665630999010248</v>
       </c>
       <c r="H16" t="n">
-        <v>1.448690449692885</v>
+        <v>1.235814025715536</v>
       </c>
       <c r="I16" t="n">
-        <v>2.051915944297573</v>
+        <v>0.2085126789220829</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1491687728231286</v>
+        <v>0.2070219158102112</v>
       </c>
       <c r="K16" t="n">
-        <v>1.100542358560351</v>
+        <v>0.2077672973661471</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5258999657565765</v>
+        <v>0.1839799406329057</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5937781321597426</v>
+        <v>0.257998255616244</v>
       </c>
       <c r="N16" t="n">
-        <v>1.034200014788327</v>
+        <v>1.006456712288057</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6190564965359651</v>
+        <v>0.2689817754878426</v>
       </c>
       <c r="P16" t="n">
-        <v>124.0849981771046</v>
+        <v>127.4192098210429</v>
       </c>
       <c r="Q16" t="n">
-        <v>198.4364234940648</v>
+        <v>201.7706351380031</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_22</t>
+          <t>model_2_5_6</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9471888854897159</v>
+        <v>0.9912227201746768</v>
       </c>
       <c r="C17" t="n">
-        <v>0.78333018371237</v>
+        <v>0.8151847416251925</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8607963841836122</v>
+        <v>0.9824742057971754</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9199563714713096</v>
+        <v>0.973952619371261</v>
       </c>
       <c r="F17" t="n">
-        <v>0.881967298291262</v>
+        <v>0.9811487905806773</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3531481659030923</v>
+        <v>0.05869371060759339</v>
       </c>
       <c r="H17" t="n">
-        <v>1.44887205918815</v>
+        <v>1.235860483748354</v>
       </c>
       <c r="I17" t="n">
-        <v>2.054713624615766</v>
+        <v>0.1945979062462724</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1504426719774805</v>
+        <v>0.1607899564677974</v>
       </c>
       <c r="K17" t="n">
-        <v>1.102578148296623</v>
+        <v>0.1776935538381741</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5278053827049404</v>
+        <v>0.330475112925141</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5942627078179249</v>
+        <v>0.2422678488937263</v>
       </c>
       <c r="N17" t="n">
-        <v>1.034255858060725</v>
+        <v>1.005693370697507</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6195617015831262</v>
+        <v>0.2525816927847163</v>
       </c>
       <c r="P17" t="n">
-        <v>124.0817351533515</v>
+        <v>127.6708454051264</v>
       </c>
       <c r="Q17" t="n">
-        <v>198.4331604703117</v>
+        <v>202.0222707220867</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_23</t>
+          <t>model_2_5_22</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9471103804375804</v>
+        <v>0.9900087199204257</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7833044671619178</v>
+        <v>0.8151834703512462</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8606261269809203</v>
+        <v>0.9811863098419192</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9193436896540346</v>
+        <v>0.9662589853612196</v>
       </c>
       <c r="F18" t="n">
-        <v>0.881771146640314</v>
+        <v>0.9778710115726068</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3536731295482046</v>
+        <v>0.06681173589772803</v>
       </c>
       <c r="H18" t="n">
-        <v>1.449044025879437</v>
+        <v>1.235868984763086</v>
       </c>
       <c r="I18" t="n">
-        <v>2.057226704409047</v>
+        <v>0.2088980773800582</v>
       </c>
       <c r="J18" t="n">
-        <v>0.151594212597979</v>
+        <v>0.2082826043922043</v>
       </c>
       <c r="K18" t="n">
-        <v>1.104410458503513</v>
+        <v>0.2085902558844207</v>
       </c>
       <c r="L18" t="n">
-        <v>0.5295175270215697</v>
+        <v>0.1801923278438019</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5947042370356921</v>
+        <v>0.2584796624450907</v>
       </c>
       <c r="N18" t="n">
-        <v>1.034306780256705</v>
+        <v>1.006480830321886</v>
       </c>
       <c r="O18" t="n">
-        <v>0.6200220276137851</v>
+        <v>0.2694836768020428</v>
       </c>
       <c r="P18" t="n">
-        <v>124.0787643105373</v>
+        <v>127.4117530535579</v>
       </c>
       <c r="Q18" t="n">
-        <v>198.4301896274975</v>
+        <v>201.7631783705182</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_6</t>
+          <t>model_2_5_23</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9497512773132974</v>
+        <v>0.9899749973621723</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7832887668563392</v>
+        <v>0.8151757160516333</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8686930716032201</v>
+        <v>0.9811549705101978</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9450559016357711</v>
+        <v>0.9660749456036229</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8907312746176131</v>
+        <v>0.9777922823509966</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3360134399800732</v>
+        <v>0.06703723880004653</v>
       </c>
       <c r="H19" t="n">
-        <v>1.449149013895135</v>
+        <v>1.235920837800303</v>
       </c>
       <c r="I19" t="n">
-        <v>1.938154646350416</v>
+        <v>0.2092460540974354</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1032678942627557</v>
+        <v>0.2094186781124025</v>
       </c>
       <c r="K19" t="n">
-        <v>1.020711270306586</v>
+        <v>0.2093323661049189</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4460795765987098</v>
+        <v>0.1767760071996087</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5796666628158577</v>
+        <v>0.2589155051364181</v>
       </c>
       <c r="N19" t="n">
-        <v>1.03259376606705</v>
+        <v>1.006502704413726</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6043442727273424</v>
+        <v>0.2699380742190587</v>
       </c>
       <c r="P19" t="n">
-        <v>124.1812082397564</v>
+        <v>127.4050140220133</v>
       </c>
       <c r="Q19" t="n">
-        <v>198.5326335567167</v>
+        <v>201.7564393389736</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9470389091624091</v>
+        <v>0.9899443932708674</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7832803330955398</v>
+        <v>0.8151684639803629</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8604731029663995</v>
+        <v>0.9811266674763589</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9187908509666103</v>
+        <v>0.9659088651407149</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8815946307046646</v>
+        <v>0.977721231055973</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3541510582943709</v>
+        <v>0.06724188849952153</v>
       </c>
       <c r="H20" t="n">
-        <v>1.449205410492434</v>
+        <v>1.23596933243428</v>
       </c>
       <c r="I20" t="n">
-        <v>2.059485413895044</v>
+        <v>0.2095603172379093</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1526332775533966</v>
+        <v>0.2104438894678841</v>
       </c>
       <c r="K20" t="n">
-        <v>1.10605934572422</v>
+        <v>0.2100021033528967</v>
       </c>
       <c r="L20" t="n">
-        <v>0.5310458846887592</v>
+        <v>0.1737035954358323</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5951059219116971</v>
+        <v>0.2593104095471709</v>
       </c>
       <c r="N20" t="n">
-        <v>1.034353140002762</v>
+        <v>1.006522555716194</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6204408130465641</v>
+        <v>0.2703497905281422</v>
       </c>
       <c r="P20" t="n">
-        <v>124.0760634770421</v>
+        <v>127.398917769765</v>
       </c>
       <c r="Q20" t="n">
-        <v>198.4274887940024</v>
+        <v>201.7503430867253</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9499805038021911</v>
+        <v>0.9913468940914912</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7831079556995469</v>
+        <v>0.8151325163034048</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8698710391344293</v>
+        <v>0.9826358185129059</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9482190213487356</v>
+        <v>0.9749380116741594</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8919801641630091</v>
+        <v>0.9815665939902046</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3344806013933504</v>
+        <v>0.05786335905408713</v>
       </c>
       <c r="H21" t="n">
-        <v>1.450358098933163</v>
+        <v>1.236209714715623</v>
       </c>
       <c r="I21" t="n">
-        <v>1.920767268001544</v>
+        <v>0.1928034371488966</v>
       </c>
       <c r="J21" t="n">
-        <v>0.09732278420027971</v>
+        <v>0.1547071496111294</v>
       </c>
       <c r="K21" t="n">
-        <v>1.009045026100912</v>
+        <v>0.173755293380013</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4343173214372793</v>
+        <v>0.3510234877207568</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5783429790300478</v>
+        <v>0.2405480389736885</v>
       </c>
       <c r="N21" t="n">
-        <v>1.032445078614795</v>
+        <v>1.005612825454168</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6029642369823676</v>
+        <v>0.2507886669958851</v>
       </c>
       <c r="P21" t="n">
-        <v>124.190352787881</v>
+        <v>127.6993418525224</v>
       </c>
       <c r="Q21" t="n">
-        <v>198.5417781048412</v>
+        <v>202.0507671694827</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9502054179223131</v>
+        <v>0.9914730505481424</v>
       </c>
       <c r="C22" t="n">
-        <v>0.782858453593789</v>
+        <v>0.8150594106371488</v>
       </c>
       <c r="D22" t="n">
-        <v>0.87122082769623</v>
+        <v>0.9828113539186415</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9516551429632436</v>
+        <v>0.9760138615769277</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8933922683594787</v>
+        <v>0.982022257070806</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3329765996364606</v>
+        <v>0.05701975024756358</v>
       </c>
       <c r="H22" t="n">
-        <v>1.452026520663218</v>
+        <v>1.236698572642497</v>
       </c>
       <c r="I22" t="n">
-        <v>1.900843726992806</v>
+        <v>0.1908543772641968</v>
       </c>
       <c r="J22" t="n">
-        <v>0.09086456477134841</v>
+        <v>0.1480659498107492</v>
       </c>
       <c r="K22" t="n">
-        <v>0.9958541458820773</v>
+        <v>0.169460163537473</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4211816997111347</v>
+        <v>0.3738636905470524</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5770412460443887</v>
+        <v>0.2387880864858286</v>
       </c>
       <c r="N22" t="n">
-        <v>1.032299188374716</v>
+        <v>1.005530994239043</v>
       </c>
       <c r="O22" t="n">
-        <v>0.60160708652855</v>
+        <v>0.2489537896870133</v>
       </c>
       <c r="P22" t="n">
-        <v>124.1993661256656</v>
+        <v>127.728715151184</v>
       </c>
       <c r="Q22" t="n">
-        <v>198.5507914426259</v>
+        <v>202.0801404681443</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9504201676200317</v>
+        <v>0.9915985078623422</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7825215663270373</v>
+        <v>0.8149595057070074</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8727770706499429</v>
+        <v>0.9830013163775763</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9553688855041008</v>
+        <v>0.9771854992587349</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8949954145562131</v>
+        <v>0.9825177821468315</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3315405674189846</v>
+        <v>0.05618081660983203</v>
       </c>
       <c r="H23" t="n">
-        <v>1.45427928736721</v>
+        <v>1.237366637370374</v>
       </c>
       <c r="I23" t="n">
-        <v>1.877872817929467</v>
+        <v>0.1887451263882427</v>
       </c>
       <c r="J23" t="n">
-        <v>0.08388455448005155</v>
+        <v>0.1408334539779075</v>
       </c>
       <c r="K23" t="n">
-        <v>0.980878686204759</v>
+        <v>0.1647892901830751</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4065847069125374</v>
+        <v>0.3992744467759285</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5757955951715718</v>
+        <v>0.2370249282456004</v>
       </c>
       <c r="N23" t="n">
-        <v>1.032159891273493</v>
+        <v>1.005449616521724</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6003084057192246</v>
+        <v>0.2471155701502578</v>
       </c>
       <c r="P23" t="n">
-        <v>124.2080102030445</v>
+        <v>127.7583598436296</v>
       </c>
       <c r="Q23" t="n">
-        <v>198.5594355200047</v>
+        <v>202.1097851605899</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.950617299562472</v>
+        <v>0.9917196335829567</v>
       </c>
       <c r="C24" t="n">
-        <v>0.782074124950691</v>
+        <v>0.8148252362657897</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8745835427636911</v>
+        <v>0.9832058410238539</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9593548054425605</v>
+        <v>0.978457418569881</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8968236401090076</v>
+        <v>0.9830547202777647</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3302223452121769</v>
+        <v>0.05537084835835013</v>
       </c>
       <c r="H24" t="n">
-        <v>1.457271329911116</v>
+        <v>1.23826449774205</v>
       </c>
       <c r="I24" t="n">
-        <v>1.85120840377012</v>
+        <v>0.1864741840571403</v>
       </c>
       <c r="J24" t="n">
-        <v>0.07639298448438044</v>
+        <v>0.132981921665131</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9638006941272506</v>
+        <v>0.1597280528611356</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3904962815766093</v>
+        <v>0.4275282913590284</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5746497587332452</v>
+        <v>0.2353101110414725</v>
       </c>
       <c r="N24" t="n">
-        <v>1.032032021905424</v>
+        <v>1.005371048486731</v>
       </c>
       <c r="O24" t="n">
-        <v>0.59911378865151</v>
+        <v>0.2453277496275892</v>
       </c>
       <c r="P24" t="n">
-        <v>124.2159781560695</v>
+        <v>127.7874040532802</v>
       </c>
       <c r="Q24" t="n">
-        <v>198.5674034730297</v>
+        <v>202.1388293702405</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9507873512136678</v>
+        <v>0.991831520811399</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7814876269143149</v>
+        <v>0.8146470646574696</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8766962467882515</v>
+        <v>0.9834249966887445</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9635893216209857</v>
+        <v>0.9798329761812142</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8989188186111492</v>
+        <v>0.9836342111136304</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3290852090376153</v>
+        <v>0.05462265794656293</v>
       </c>
       <c r="H25" t="n">
-        <v>1.461193244980938</v>
+        <v>1.239455932107291</v>
       </c>
       <c r="I25" t="n">
-        <v>1.820023856453686</v>
+        <v>0.1840407860018985</v>
       </c>
       <c r="J25" t="n">
-        <v>0.06843417576813365</v>
+        <v>0.1244906322108205</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9442290161109099</v>
+        <v>0.1542657091063595</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3728759354450636</v>
+        <v>0.4589509772112367</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5736594887540999</v>
+        <v>0.2337149074119213</v>
       </c>
       <c r="N25" t="n">
-        <v>1.031921718131675</v>
+        <v>1.005298472987201</v>
       </c>
       <c r="O25" t="n">
-        <v>0.598081360829211</v>
+        <v>0.2436646348770012</v>
       </c>
       <c r="P25" t="n">
-        <v>124.2228771354293</v>
+        <v>127.8146130032113</v>
       </c>
       <c r="Q25" t="n">
-        <v>198.5743024523895</v>
+        <v>202.1660383201716</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9509186078942754</v>
+        <v>0.991927625904066</v>
       </c>
       <c r="C26" t="n">
-        <v>0.780727285464776</v>
+        <v>0.8144129491098131</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8791873963393662</v>
+        <v>0.9836583764356286</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9680238551744549</v>
+        <v>0.9813139122631505</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9013331164974849</v>
+        <v>0.9842565847805931</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3282074950100102</v>
+        <v>0.05398000274937515</v>
       </c>
       <c r="H26" t="n">
-        <v>1.466277651755056</v>
+        <v>1.241021463852473</v>
       </c>
       <c r="I26" t="n">
-        <v>1.783253267603593</v>
+        <v>0.1814494506490837</v>
       </c>
       <c r="J26" t="n">
-        <v>0.06009943271586717</v>
+        <v>0.1153488435780166</v>
       </c>
       <c r="K26" t="n">
-        <v>0.92167635015973</v>
+        <v>0.1483991471135502</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3537623063779553</v>
+        <v>0.4939124624088789</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5728939648922916</v>
+        <v>0.2323359695556741</v>
       </c>
       <c r="N26" t="n">
-        <v>1.031836578663173</v>
+        <v>1.005236134548714</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5972832470317527</v>
+        <v>0.2422269927814188</v>
       </c>
       <c r="P26" t="n">
-        <v>124.2282185277429</v>
+        <v>127.8382832409181</v>
       </c>
       <c r="Q26" t="n">
-        <v>198.5796438447032</v>
+        <v>202.1897085578784</v>
       </c>
     </row>
   </sheetData>
